--- a/public/excel/form_pengisian_data_karyawan.xlsx
+++ b/public/excel/form_pengisian_data_karyawan.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>NIP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -366,7 +363,7 @@
   <dimension ref="A1:E2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,19 +377,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -13389,7 +13383,7 @@
       <c r="D2000" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DDb/Ho6QImVU/p4/vAZ4UOtB0215Jw/X7MiZq1cWFu0E9K3pZ9oIr71KCyM/tJrKW9Rk1arin51BdnP3eh5I1Q==" saltValue="bKXWH0/ay2jrNZK0641m/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Dpk89umZuBpwtLFbTy23pD7YWy1p/gxkz947jyVqeL8exixGA2FRzdKo+SzUORqlJcUh91FEjXBArvN9lxrWCA==" saltValue="WNWTh5HOopA5D/etdvuEmg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
